--- a/Collections/Ukraine/#Ukraine#Regular#[1992-present]#circulation_quality.xlsx
+++ b/Collections/Ukraine/#Ukraine#Regular#[1992-present]#circulation_quality.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\Украина\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Ukraine\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8DF08C-15F5-4214-A7F0-5556BDB69542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="7"/>
+    <workbookView xWindow="8540" yWindow="2050" windowWidth="28800" windowHeight="17740" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1копійка" sheetId="4" r:id="rId1"/>
@@ -22,12 +23,15 @@
     <sheet name="2гривнi" sheetId="11" r:id="rId8"/>
     <sheet name="Links" sheetId="3" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,12 +39,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -56,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -89,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -111,12 +115,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -132,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -149,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -165,7 +169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -187,12 +191,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -208,7 +212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -225,7 +229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -241,7 +245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -263,12 +267,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -284,7 +288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -301,7 +305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -317,7 +321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -339,12 +343,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -360,7 +364,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -376,7 +380,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -393,7 +397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -409,7 +413,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -425,7 +429,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -447,12 +451,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -468,7 +472,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -484,7 +488,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -501,7 +505,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -517,7 +521,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
       <text>
         <r>
           <rPr>
@@ -533,7 +537,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
       <text>
         <r>
           <rPr>
@@ -549,7 +553,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
       <text>
         <r>
           <rPr>
@@ -566,7 +570,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000008000000}">
       <text>
         <r>
           <rPr>
@@ -587,12 +591,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -608,7 +612,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -624,7 +628,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
@@ -641,7 +645,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
       <text>
         <r>
           <rPr>
@@ -657,7 +661,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000005000000}">
       <text>
         <r>
           <rPr>
@@ -673,7 +677,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000006000000}">
       <text>
         <r>
           <rPr>
@@ -695,12 +699,12 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -717,7 +721,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -745,9 +749,6 @@
   </si>
   <si>
     <t>Year</t>
-  </si>
-  <si>
-    <t>Series</t>
   </si>
   <si>
     <t>Type</t>
@@ -866,11 +867,14 @@
   <si>
     <t xml:space="preserve">Kruse catalog 2000-2015. Middle convenience single table with all coins, varieties. </t>
   </si>
+  <si>
+    <t>Subject</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1138,7 +1142,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1215,9 +1219,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1252,20 +1253,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="160">
     <dxf>
@@ -2547,16 +2548,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C5" totalsRowShown="0">
-  <autoFilter ref="A1:C5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C5" totalsRowShown="0">
+  <autoFilter ref="A1:C5" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2858,81 +2859,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:H2"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="9" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="9" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="33"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="34"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>1992</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>0</v>
@@ -2948,7 +2949,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>1993</v>
       </c>
@@ -2978,19 +2979,19 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>1994</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>0</v>
@@ -3006,7 +3007,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>1995</v>
       </c>
@@ -3036,19 +3037,19 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>1996</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>0</v>
@@ -3064,7 +3065,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>1997</v>
       </c>
@@ -3095,7 +3096,7 @@
       </c>
       <c r="J8" s="13"/>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>1998</v>
       </c>
@@ -3125,7 +3126,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>1999</v>
       </c>
@@ -3155,22 +3156,22 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>2000</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>0</v>
@@ -3183,22 +3184,22 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>2001</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>0</v>
@@ -3211,22 +3212,22 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>2002</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>0</v>
@@ -3239,22 +3240,22 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>2003</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>0</v>
@@ -3267,22 +3268,22 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>2004</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>0</v>
@@ -3295,22 +3296,22 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>2005</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>0</v>
@@ -3323,22 +3324,22 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>2006</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>0</v>
@@ -3351,22 +3352,22 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>2007</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>0</v>
@@ -3379,22 +3380,22 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>2008</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>0</v>
@@ -3407,22 +3408,22 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>2009</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>0</v>
@@ -3435,22 +3436,22 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>2010</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>0</v>
@@ -3463,22 +3464,22 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>2011</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>0</v>
@@ -3491,22 +3492,22 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>2012</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>0</v>
@@ -3519,22 +3520,22 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>2013</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>0</v>
@@ -3547,22 +3548,22 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>2014</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>0</v>
@@ -3575,22 +3576,22 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>2015</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>0</v>
@@ -3603,22 +3604,22 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>2016</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>0</v>
@@ -3631,22 +3632,22 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>2017</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>0</v>
@@ -3659,22 +3660,22 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>2018</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>0</v>
@@ -3746,7 +3747,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21 H23 H25 H27 H29">
+  <conditionalFormatting sqref="H23 H21 H25 H27 H29">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3923,79 +3924,79 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:H2"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="9" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="9" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="33"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="34"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>1992</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>0</v>
@@ -4011,17 +4012,17 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>1993</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>0</v>
@@ -4037,17 +4038,17 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>1994</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>0</v>
@@ -4063,7 +4064,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>1995</v>
       </c>
@@ -4093,17 +4094,17 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>1996</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>0</v>
@@ -4119,7 +4120,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>1997</v>
       </c>
@@ -4150,7 +4151,7 @@
       </c>
       <c r="J8" s="13"/>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>1998</v>
       </c>
@@ -4180,7 +4181,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>1999</v>
       </c>
@@ -4210,7 +4211,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>2000</v>
       </c>
@@ -4240,12 +4241,12 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>2001</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -4253,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>0</v>
@@ -4266,12 +4267,12 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>2002</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -4279,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>0</v>
@@ -4292,12 +4293,12 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>2003</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -4305,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>0</v>
@@ -4318,12 +4319,12 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>2004</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -4331,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>0</v>
@@ -4344,12 +4345,12 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>2005</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -4357,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>0</v>
@@ -4370,12 +4371,12 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>2006</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -4383,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>0</v>
@@ -4396,12 +4397,12 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>2007</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -4409,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>0</v>
@@ -4422,12 +4423,12 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>2008</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -4435,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>0</v>
@@ -4448,12 +4449,12 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>2009</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -4461,7 +4462,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>0</v>
@@ -4474,12 +4475,12 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>2010</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -4487,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>0</v>
@@ -4500,12 +4501,12 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>2011</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -4513,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>0</v>
@@ -4526,12 +4527,12 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>2012</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -4539,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>0</v>
@@ -4552,12 +4553,12 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>2013</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -4565,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>0</v>
@@ -4578,12 +4579,12 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>2014</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -4591,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>0</v>
@@ -4604,12 +4605,12 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>2015</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -4617,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>0</v>
@@ -4630,12 +4631,12 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>2016</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -4643,7 +4644,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>0</v>
@@ -4656,12 +4657,12 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>2017</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -4669,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>0</v>
@@ -4682,12 +4683,12 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>2018</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -4695,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>0</v>
@@ -4740,7 +4741,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23 H21 H25 H27 H29">
+  <conditionalFormatting sqref="H21 H23 H25 H27 H29">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4961,81 +4962,81 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="9" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="9" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="33"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="34"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>1992</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>0</v>
@@ -5051,7 +5052,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>1993</v>
       </c>
@@ -5081,19 +5082,19 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>1994</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>0</v>
@@ -5109,7 +5110,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>1995</v>
       </c>
@@ -5139,19 +5140,19 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>1996</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>0</v>
@@ -5167,7 +5168,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>1997</v>
       </c>
@@ -5198,7 +5199,7 @@
       </c>
       <c r="J8" s="13"/>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>1998</v>
       </c>
@@ -5228,7 +5229,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>1999</v>
       </c>
@@ -5258,7 +5259,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>2000</v>
       </c>
@@ -5288,22 +5289,22 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>2001</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>0</v>
@@ -5316,22 +5317,22 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>2002</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>0</v>
@@ -5344,22 +5345,22 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>2003</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>0</v>
@@ -5372,22 +5373,22 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>2004</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>0</v>
@@ -5400,22 +5401,22 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>2005</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>0</v>
@@ -5428,22 +5429,22 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>2006</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>0</v>
@@ -5456,22 +5457,22 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>2007</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>0</v>
@@ -5484,22 +5485,22 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>2008</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>0</v>
@@ -5512,22 +5513,22 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>2009</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>0</v>
@@ -5540,22 +5541,22 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>2010</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>0</v>
@@ -5568,22 +5569,22 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>2011</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>0</v>
@@ -5596,22 +5597,22 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>2012</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>0</v>
@@ -5624,22 +5625,22 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>2013</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>0</v>
@@ -5652,22 +5653,22 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>2014</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>0</v>
@@ -5680,22 +5681,22 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>2015</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>0</v>
@@ -5708,22 +5709,22 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>2016</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>0</v>
@@ -5736,22 +5737,22 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>2017</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>0</v>
@@ -5764,22 +5765,22 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>2018</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>0</v>
@@ -5848,7 +5849,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23 H21 H25 H27 H29">
+  <conditionalFormatting sqref="H21 H23 H25 H27 H29">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6045,79 +6046,79 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:H2"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="9" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="9" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="33"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="34"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>1992</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>0</v>
@@ -6133,7 +6134,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>1993</v>
       </c>
@@ -6163,17 +6164,17 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>1994</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>0</v>
@@ -6189,7 +6190,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>1995</v>
       </c>
@@ -6219,17 +6220,17 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>1996</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>0</v>
@@ -6245,7 +6246,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>1997</v>
       </c>
@@ -6276,7 +6277,7 @@
       </c>
       <c r="J8" s="13"/>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>1998</v>
       </c>
@@ -6306,7 +6307,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>1999</v>
       </c>
@@ -6336,7 +6337,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>2000</v>
       </c>
@@ -6366,12 +6367,12 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>2001</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -6379,7 +6380,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>0</v>
@@ -6392,12 +6393,12 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>2002</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -6405,7 +6406,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>0</v>
@@ -6418,12 +6419,12 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>2003</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -6431,7 +6432,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>0</v>
@@ -6444,12 +6445,12 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>2004</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -6457,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>0</v>
@@ -6470,12 +6471,12 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>2005</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -6483,7 +6484,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>0</v>
@@ -6496,12 +6497,12 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>2006</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -6509,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>0</v>
@@ -6522,12 +6523,12 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>2007</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -6535,7 +6536,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>0</v>
@@ -6548,12 +6549,12 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>2008</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -6561,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>0</v>
@@ -6574,12 +6575,12 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>2009</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -6587,7 +6588,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>0</v>
@@ -6600,12 +6601,12 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>2010</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -6613,7 +6614,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>0</v>
@@ -6626,12 +6627,12 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>2011</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -6639,7 +6640,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>0</v>
@@ -6652,12 +6653,12 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>2012</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -6665,7 +6666,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>0</v>
@@ -6678,12 +6679,12 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>2013</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -6691,7 +6692,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>0</v>
@@ -6704,12 +6705,12 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>2014</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -6717,7 +6718,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>0</v>
@@ -6730,12 +6731,12 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>2015</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -6743,7 +6744,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>0</v>
@@ -6756,12 +6757,12 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>2016</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -6769,7 +6770,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>0</v>
@@ -6782,12 +6783,12 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>2017</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -6795,7 +6796,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>0</v>
@@ -6808,12 +6809,12 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>2018</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -6821,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>0</v>
@@ -6834,12 +6835,12 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>2019</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -6847,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>0</v>
@@ -6880,7 +6881,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23 H21 H25 H27 H29">
+  <conditionalFormatting sqref="H21 H23 H25 H27 H29">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7147,90 +7148,90 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="9" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="10" width="3.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="9" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="7" width="12.453125" customWidth="1"/>
+    <col min="8" max="10" width="3.81640625" customWidth="1"/>
+    <col min="11" max="11" width="13.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>1992</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>0</v>
@@ -7249,7 +7250,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>1993</v>
       </c>
@@ -7285,12 +7286,12 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>1994</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -7298,7 +7299,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>0</v>
@@ -7317,12 +7318,12 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>1995</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -7330,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>0</v>
@@ -7349,12 +7350,12 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>1996</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -7362,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>0</v>
@@ -7381,7 +7382,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>1997</v>
       </c>
@@ -7418,7 +7419,7 @@
       </c>
       <c r="L8" s="13"/>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>1998</v>
       </c>
@@ -7454,7 +7455,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>1999</v>
       </c>
@@ -7490,7 +7491,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>2000</v>
       </c>
@@ -7526,12 +7527,12 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>2001</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -7542,7 +7543,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>0</v>
@@ -7558,7 +7559,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>2002</v>
       </c>
@@ -7594,12 +7595,12 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>2003</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -7610,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>0</v>
@@ -7626,12 +7627,12 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>2004</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -7642,7 +7643,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>0</v>
@@ -7658,12 +7659,12 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>2005</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -7674,7 +7675,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>0</v>
@@ -7690,12 +7691,12 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>2006</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -7706,7 +7707,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>0</v>
@@ -7722,12 +7723,12 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>2007</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -7738,7 +7739,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>0</v>
@@ -7754,12 +7755,12 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>2008</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -7770,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>0</v>
@@ -7786,12 +7787,12 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>2009</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -7802,7 +7803,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>0</v>
@@ -7818,12 +7819,12 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>2010</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -7834,7 +7835,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>0</v>
@@ -7850,12 +7851,12 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>2011</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -7866,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>0</v>
@@ -7882,12 +7883,12 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>2012</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -7898,7 +7899,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>0</v>
@@ -7914,12 +7915,12 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>2013</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -7930,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>0</v>
@@ -7946,12 +7947,12 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>2014</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -7962,7 +7963,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>0</v>
@@ -7978,12 +7979,12 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>2015</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -7994,7 +7995,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>0</v>
@@ -8010,12 +8011,12 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>2016</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -8026,7 +8027,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H27" s="8" t="s">
         <v>0</v>
@@ -8042,12 +8043,12 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>2017</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -8058,7 +8059,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>0</v>
@@ -8074,12 +8075,12 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>2018</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -8090,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H29" s="8" t="s">
         <v>0</v>
@@ -8186,7 +8187,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J21 J23 J25 J27 J29">
+  <conditionalFormatting sqref="J23 J21 J25 J27 J29">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8529,104 +8530,104 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="9" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="8" width="12.42578125" customWidth="1"/>
-    <col min="9" max="12" width="3.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="9" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="8" width="12.453125" customWidth="1"/>
+    <col min="9" max="12" width="3.81640625" customWidth="1"/>
+    <col min="13" max="13" width="13.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="36" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="33" t="s">
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-    </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L2" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>1992</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I3" s="8">
         <v>0</v>
@@ -8645,7 +8646,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>1993</v>
       </c>
@@ -8687,20 +8688,20 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>1994</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>0</v>
@@ -8725,20 +8726,20 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>1995</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>0</v>
@@ -8763,20 +8764,20 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>1996</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>0</v>
@@ -8801,7 +8802,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>1997</v>
       </c>
@@ -8844,7 +8845,7 @@
       </c>
       <c r="N8" s="13"/>
     </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>1998</v>
       </c>
@@ -8886,7 +8887,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>1999</v>
       </c>
@@ -8928,7 +8929,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>2000</v>
       </c>
@@ -8970,12 +8971,12 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>2001</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -8986,7 +8987,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>0</v>
@@ -9008,7 +9009,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>2002</v>
       </c>
@@ -9050,12 +9051,12 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>2003</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -9066,7 +9067,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>0</v>
@@ -9088,12 +9089,12 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>2004</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -9104,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>0</v>
@@ -9126,12 +9127,12 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>2005</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -9142,7 +9143,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>0</v>
@@ -9164,12 +9165,12 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>2006</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -9180,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>0</v>
@@ -9202,12 +9203,12 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>2007</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -9218,7 +9219,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>0</v>
@@ -9240,12 +9241,12 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>2008</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -9256,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>0</v>
@@ -9278,12 +9279,12 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>2009</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -9294,7 +9295,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>0</v>
@@ -9316,12 +9317,12 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>2010</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -9332,7 +9333,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>0</v>
@@ -9354,12 +9355,12 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>2011</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -9370,7 +9371,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>0</v>
@@ -9392,12 +9393,12 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>2012</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -9408,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>0</v>
@@ -9430,12 +9431,12 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>2013</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -9446,7 +9447,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>0</v>
@@ -9468,12 +9469,12 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>2013</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -9484,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>0</v>
@@ -9506,12 +9507,12 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>2014</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -9522,7 +9523,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>0</v>
@@ -9544,12 +9545,12 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>2014</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -9560,7 +9561,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>0</v>
@@ -9582,12 +9583,12 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>2015</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -9598,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>0</v>
@@ -9620,12 +9621,12 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>2016</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -9636,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>0</v>
@@ -9658,12 +9659,12 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>2016</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -9674,7 +9675,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>0</v>
@@ -9696,7 +9697,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>2017</v>
       </c>
@@ -9738,12 +9739,12 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>2018</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -9754,7 +9755,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>0</v>
@@ -9776,12 +9777,12 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>2019</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -9792,7 +9793,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>0</v>
@@ -9822,7 +9823,7 @@
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="E1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K24 K22 K28 K15:K20">
+  <conditionalFormatting sqref="K22 K24 K28 K15:K20">
     <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9882,7 +9883,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23 K21 K26 K29 K32">
+  <conditionalFormatting sqref="K21 K23 K26 K29 K32">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9938,7 +9939,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8 I4">
+  <conditionalFormatting sqref="I4 I8">
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10611,90 +10612,90 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="9" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="10" width="3.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="9" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="7" width="12.453125" customWidth="1"/>
+    <col min="8" max="10" width="3.81640625" customWidth="1"/>
+    <col min="11" max="11" width="13.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>1992</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>0</v>
@@ -10713,7 +10714,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>1993</v>
       </c>
@@ -10749,7 +10750,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>1994</v>
       </c>
@@ -10785,12 +10786,12 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>1995</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -10798,7 +10799,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>0</v>
@@ -10817,12 +10818,12 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>1996</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -10830,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>0</v>
@@ -10849,7 +10850,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>1997</v>
       </c>
@@ -10886,7 +10887,7 @@
       </c>
       <c r="L8" s="13"/>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>1998</v>
       </c>
@@ -10922,7 +10923,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>1999</v>
       </c>
@@ -10958,7 +10959,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>2000</v>
       </c>
@@ -10994,12 +10995,12 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>2001</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -11010,7 +11011,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>0</v>
@@ -11026,12 +11027,12 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>2002</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -11042,7 +11043,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>0</v>
@@ -11058,12 +11059,12 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>2003</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -11074,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>0</v>
@@ -11090,15 +11091,15 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>2004</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="7" t="s">
@@ -11108,7 +11109,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>0</v>
@@ -11124,15 +11125,15 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>2005</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="7" t="s">
@@ -11142,7 +11143,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>0</v>
@@ -11158,15 +11159,15 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>2006</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="7" t="s">
@@ -11176,7 +11177,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>0</v>
@@ -11192,15 +11193,15 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>2007</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="7" t="s">
@@ -11210,7 +11211,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>0</v>
@@ -11226,15 +11227,15 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>2008</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="7" t="s">
@@ -11244,7 +11245,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>0</v>
@@ -11260,7 +11261,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>2009</v>
       </c>
@@ -11296,15 +11297,15 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>2010</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="7" t="s">
@@ -11314,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>0</v>
@@ -11330,15 +11331,15 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>2011</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="7" t="s">
@@ -11348,7 +11349,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>0</v>
@@ -11364,15 +11365,15 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>2012</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="7" t="s">
@@ -11382,7 +11383,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>0</v>
@@ -11398,15 +11399,15 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>2013</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="7" t="s">
@@ -11416,7 +11417,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>0</v>
@@ -11432,15 +11433,15 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>2014</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="7" t="s">
@@ -11450,7 +11451,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>0</v>
@@ -11466,15 +11467,15 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>2015</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="7" t="s">
@@ -11484,7 +11485,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>0</v>
@@ -11500,15 +11501,15 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>2016</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="7" t="s">
@@ -11518,7 +11519,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H27" s="8" t="s">
         <v>0</v>
@@ -11534,7 +11535,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>2017</v>
       </c>
@@ -11570,15 +11571,15 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>2018</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="7" t="s">
@@ -11588,7 +11589,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H29" s="8" t="s">
         <v>0</v>
@@ -11604,12 +11605,12 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>2019</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -11620,7 +11621,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>0</v>
@@ -11644,7 +11645,7 @@
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="J24 J22 J26 J13:J19 J30">
+  <conditionalFormatting sqref="J22 J24 J26 J13:J19 J30">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11704,7 +11705,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J21 J23 J25 J27 J29">
+  <conditionalFormatting sqref="J23 J21 J25 J27 J29">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -12127,75 +12128,75 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="9" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="9" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="11" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="39"/>
+      <c r="B2" s="42"/>
       <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20">
         <v>2018</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="8">
         <v>1</v>
@@ -12206,17 +12207,17 @@
       </c>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20">
         <v>2019</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="8">
         <v>0</v>
@@ -12274,7 +12275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12284,74 +12285,74 @@
       <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
     <col min="3" max="3" width="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
